--- a/NAPS_SUMO_Animals.xlsx
+++ b/NAPS_SUMO_Animals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko Horvat\Desktop\Desktop Folders\Desktop Folders_04\135_MDPI Data_NAPS WordNet\01_Dataset\03_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CB2A6C-FC4A-4156-B383-DFE03D5B3C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CEDBF7-FC4D-409C-B2A6-E5B25F73B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{68237DF3-2FAB-4D86-947E-68C8D65DFA20}"/>
   </bookViews>
@@ -1505,27 +1505,6 @@
     <t>Animals_001_h</t>
   </si>
   <si>
-    <t>WordNet_7</t>
-  </si>
-  <si>
-    <t>WordNet_6</t>
-  </si>
-  <si>
-    <t>WordNet_5</t>
-  </si>
-  <si>
-    <t>WordNet_4</t>
-  </si>
-  <si>
-    <t>WordNet_3</t>
-  </si>
-  <si>
-    <t>WordNet_2</t>
-  </si>
-  <si>
-    <t>WordNet_1</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1533,6 +1512,27 @@
   </si>
   <si>
     <t>Picture_ID</t>
+  </si>
+  <si>
+    <t>SUMO_1</t>
+  </si>
+  <si>
+    <t>SUMO_2</t>
+  </si>
+  <si>
+    <t>SUMO_3</t>
+  </si>
+  <si>
+    <t>SUMO_4</t>
+  </si>
+  <si>
+    <t>SUMO_5</t>
+  </si>
+  <si>
+    <t>SUMO_6</t>
+  </si>
+  <si>
+    <t>SUMO_7</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1676,14 +1676,12 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -2001,7 +1999,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424AEC8A-F1DC-4E03-AB74-554755276FAF}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:W226"/>
+  <dimension ref="A1:AB230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2014,52 +2012,56 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:28" ht="15" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1">
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>488</v>
       </c>
@@ -2075,9 +2077,26 @@
       <c r="E2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1">
+      <c r="F2" s="14"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>486</v>
       </c>
@@ -2090,8 +2109,25 @@
       <c r="D3" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1">
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>485</v>
       </c>
@@ -2104,8 +2140,25 @@
       <c r="D4" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1">
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>483</v>
       </c>
@@ -2121,8 +2174,25 @@
       <c r="E5" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1">
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>482</v>
       </c>
@@ -2135,8 +2205,25 @@
       <c r="D6" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1">
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>481</v>
       </c>
@@ -2149,8 +2236,25 @@
       <c r="D7" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1">
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>480</v>
       </c>
@@ -2166,8 +2270,25 @@
       <c r="E8" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1">
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="1:28" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>477</v>
       </c>
@@ -2186,8 +2307,25 @@
       <c r="F9" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1">
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:28" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>473</v>
       </c>
@@ -2203,8 +2341,25 @@
       <c r="E10" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1">
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>471</v>
       </c>
@@ -2220,8 +2375,25 @@
       <c r="E11" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1">
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>469</v>
       </c>
@@ -2240,8 +2412,25 @@
       <c r="F12" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1">
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="1:28" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>466</v>
       </c>
@@ -2257,8 +2446,25 @@
       <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1">
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>463</v>
       </c>
@@ -2274,8 +2480,25 @@
       <c r="E14" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1">
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="1:28" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>462</v>
       </c>
@@ -2288,8 +2511,25 @@
       <c r="D15" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1">
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:28" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>461</v>
       </c>
@@ -2302,8 +2542,25 @@
       <c r="D16" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="1:28" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>460</v>
       </c>
@@ -2319,8 +2576,25 @@
       <c r="E17" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="1:28" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>457</v>
       </c>
@@ -2336,8 +2610,25 @@
       <c r="E18" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="1:28" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>456</v>
       </c>
@@ -2353,8 +2644,25 @@
       <c r="E19" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="1:28" ht="15" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>454</v>
       </c>
@@ -2370,8 +2678,25 @@
       <c r="E20" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="1:28" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>452</v>
       </c>
@@ -2384,8 +2709,25 @@
       <c r="D21" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="1:28" ht="15" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>451</v>
       </c>
@@ -2395,14 +2737,31 @@
       <c r="C22" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+    </row>
+    <row r="23" spans="1:28" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>450</v>
       </c>
@@ -2412,14 +2771,31 @@
       <c r="C23" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="1:28" ht="15" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>448</v>
       </c>
@@ -2435,8 +2811,25 @@
       <c r="E24" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+    </row>
+    <row r="25" spans="1:28" ht="15" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>447</v>
       </c>
@@ -2452,8 +2845,25 @@
       <c r="E25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+    </row>
+    <row r="26" spans="1:28" ht="15" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>446</v>
       </c>
@@ -2469,8 +2879,25 @@
       <c r="E26" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+    </row>
+    <row r="27" spans="1:28" ht="15" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>442</v>
       </c>
@@ -2483,8 +2910,25 @@
       <c r="D27" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+    </row>
+    <row r="28" spans="1:28" ht="15" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>441</v>
       </c>
@@ -2500,8 +2944,25 @@
       <c r="E28" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+    </row>
+    <row r="29" spans="1:28" ht="15" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>440</v>
       </c>
@@ -2517,8 +2978,25 @@
       <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+    </row>
+    <row r="30" spans="1:28" ht="15" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>438</v>
       </c>
@@ -2534,8 +3012,25 @@
       <c r="E30" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+    </row>
+    <row r="31" spans="1:28" ht="15" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>435</v>
       </c>
@@ -2551,8 +3046,25 @@
       <c r="E31" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+    </row>
+    <row r="32" spans="1:28" ht="15" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>433</v>
       </c>
@@ -2565,8 +3077,25 @@
       <c r="D32" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+    </row>
+    <row r="33" spans="1:28" ht="15" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>430</v>
       </c>
@@ -2582,8 +3111,25 @@
       <c r="E33" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+    </row>
+    <row r="34" spans="1:28" ht="15" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>428</v>
       </c>
@@ -2599,8 +3145,25 @@
       <c r="E34" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+    </row>
+    <row r="35" spans="1:28" ht="15" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>427</v>
       </c>
@@ -2619,8 +3182,25 @@
       <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+    </row>
+    <row r="36" spans="1:28" ht="15" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>425</v>
       </c>
@@ -2636,8 +3216,25 @@
       <c r="E36" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+    </row>
+    <row r="37" spans="1:28" ht="15" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>424</v>
       </c>
@@ -2653,8 +3250,25 @@
       <c r="E37" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+    </row>
+    <row r="38" spans="1:28" ht="15" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>423</v>
       </c>
@@ -2667,8 +3281,25 @@
       <c r="D38" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+    </row>
+    <row r="39" spans="1:28" ht="15" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>420</v>
       </c>
@@ -2684,8 +3315,25 @@
       <c r="E39" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+    </row>
+    <row r="40" spans="1:28" ht="15" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>418</v>
       </c>
@@ -2701,8 +3349,25 @@
       <c r="E40" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+    </row>
+    <row r="41" spans="1:28" ht="15" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>416</v>
       </c>
@@ -2718,8 +3383,25 @@
       <c r="E41" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+    </row>
+    <row r="42" spans="1:28" ht="15" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>415</v>
       </c>
@@ -2732,8 +3414,25 @@
       <c r="D42" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1">
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+    </row>
+    <row r="43" spans="1:28" ht="15" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>414</v>
       </c>
@@ -2746,8 +3445,25 @@
       <c r="D43" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+    </row>
+    <row r="44" spans="1:28" ht="15" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>412</v>
       </c>
@@ -2760,8 +3476,25 @@
       <c r="D44" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1">
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+    </row>
+    <row r="45" spans="1:28" ht="15" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>411</v>
       </c>
@@ -2777,8 +3510,25 @@
       <c r="E45" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+    </row>
+    <row r="46" spans="1:28" ht="15" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>407</v>
       </c>
@@ -2794,8 +3544,25 @@
       <c r="E46" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1">
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+    </row>
+    <row r="47" spans="1:28" ht="15" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>404</v>
       </c>
@@ -2808,8 +3575,25 @@
       <c r="D47" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1">
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+    </row>
+    <row r="48" spans="1:28" ht="15" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>403</v>
       </c>
@@ -2825,8 +3609,25 @@
       <c r="E48" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+    </row>
+    <row r="49" spans="1:28" ht="15" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>402</v>
       </c>
@@ -2845,8 +3646,25 @@
       <c r="F49" s="7" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+    </row>
+    <row r="50" spans="1:28" ht="15" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>400</v>
       </c>
@@ -2862,8 +3680,25 @@
       <c r="E50" s="7" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+    </row>
+    <row r="51" spans="1:28" ht="15" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>399</v>
       </c>
@@ -2882,8 +3717,25 @@
       <c r="F51" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+    </row>
+    <row r="52" spans="1:28" ht="15" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>397</v>
       </c>
@@ -2899,8 +3751,25 @@
       <c r="E52" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1">
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+    </row>
+    <row r="53" spans="1:28" ht="15" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>395</v>
       </c>
@@ -2916,8 +3785,25 @@
       <c r="E53" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1">
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+    </row>
+    <row r="54" spans="1:28" ht="15" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>394</v>
       </c>
@@ -2936,8 +3822,25 @@
       <c r="G54" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1">
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+    </row>
+    <row r="55" spans="1:28" ht="15" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>393</v>
       </c>
@@ -2953,8 +3856,25 @@
       <c r="E55" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1">
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+    </row>
+    <row r="56" spans="1:28" ht="15" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>392</v>
       </c>
@@ -2967,8 +3887,25 @@
       <c r="D56" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1">
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+    </row>
+    <row r="57" spans="1:28" ht="15" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>390</v>
       </c>
@@ -2984,8 +3921,25 @@
       <c r="E57" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1">
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+    </row>
+    <row r="58" spans="1:28" ht="15" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>388</v>
       </c>
@@ -3004,8 +3958,25 @@
       <c r="F58" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1">
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+    </row>
+    <row r="59" spans="1:28" ht="15" customHeight="1">
       <c r="A59" s="6" t="s">
         <v>386</v>
       </c>
@@ -3021,8 +3992,25 @@
       <c r="E59" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1">
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+    </row>
+    <row r="60" spans="1:28" ht="15" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>385</v>
       </c>
@@ -3038,8 +4026,25 @@
       <c r="E60" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1">
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+    </row>
+    <row r="61" spans="1:28" ht="15" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>384</v>
       </c>
@@ -3055,8 +4060,25 @@
       <c r="E61" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1">
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+    </row>
+    <row r="62" spans="1:28" ht="15" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>382</v>
       </c>
@@ -3075,8 +4097,25 @@
       <c r="F62" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1">
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+    </row>
+    <row r="63" spans="1:28" ht="15" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>380</v>
       </c>
@@ -3095,8 +4134,25 @@
       <c r="F63" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1">
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+    </row>
+    <row r="64" spans="1:28" ht="15" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>377</v>
       </c>
@@ -3112,8 +4168,25 @@
       <c r="E64" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" ht="15" customHeight="1">
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+    </row>
+    <row r="65" spans="1:28" ht="15" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>375</v>
       </c>
@@ -3132,8 +4205,25 @@
       <c r="F65" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" ht="15" customHeight="1">
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+    </row>
+    <row r="66" spans="1:28" ht="15" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>373</v>
       </c>
@@ -3149,8 +4239,25 @@
       <c r="E66" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" ht="15" customHeight="1">
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+    </row>
+    <row r="67" spans="1:28" ht="15" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>371</v>
       </c>
@@ -3166,8 +4273,25 @@
       <c r="E67" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" ht="15" customHeight="1">
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+    </row>
+    <row r="68" spans="1:28" ht="15" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>368</v>
       </c>
@@ -3183,8 +4307,25 @@
       <c r="E68" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" ht="15" customHeight="1">
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+    </row>
+    <row r="69" spans="1:28" ht="15" customHeight="1">
       <c r="A69" s="6" t="s">
         <v>367</v>
       </c>
@@ -3200,8 +4341,25 @@
       <c r="E69" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" ht="15" customHeight="1">
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+    </row>
+    <row r="70" spans="1:28" ht="15" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>365</v>
       </c>
@@ -3217,8 +4375,25 @@
       <c r="E70" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" ht="15" customHeight="1">
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+    </row>
+    <row r="71" spans="1:28" ht="15" customHeight="1">
       <c r="A71" s="6" t="s">
         <v>362</v>
       </c>
@@ -3234,8 +4409,25 @@
       <c r="E71" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" ht="15" customHeight="1">
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+    </row>
+    <row r="72" spans="1:28" ht="15" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>361</v>
       </c>
@@ -3251,8 +4443,25 @@
       <c r="E72" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" ht="15" customHeight="1">
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+    </row>
+    <row r="73" spans="1:28" ht="15" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>358</v>
       </c>
@@ -3268,21 +4477,38 @@
       <c r="E73" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" ht="15" customHeight="1">
-      <c r="A74" s="13" t="s">
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+    </row>
+    <row r="74" spans="1:28" ht="15" customHeight="1">
+      <c r="A74" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="10" t="s">
         <v>354</v>
       </c>
       <c r="F74" s="9"/>
@@ -3290,21 +4516,25 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-    </row>
-    <row r="75" spans="1:23" ht="15" customHeight="1">
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+    </row>
+    <row r="75" spans="1:28" ht="15" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>353</v>
       </c>
@@ -3323,8 +4553,25 @@
       <c r="F75" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" ht="15" customHeight="1">
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+    </row>
+    <row r="76" spans="1:28" ht="15" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>351</v>
       </c>
@@ -3343,8 +4590,25 @@
       <c r="F76" s="7" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="15" customHeight="1">
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+    </row>
+    <row r="77" spans="1:28" ht="15" customHeight="1">
       <c r="A77" s="6" t="s">
         <v>348</v>
       </c>
@@ -3360,8 +4624,25 @@
       <c r="E77" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="15" customHeight="1">
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+    </row>
+    <row r="78" spans="1:28" ht="15" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>347</v>
       </c>
@@ -3380,8 +4661,25 @@
       <c r="F78" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" ht="15" customHeight="1">
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+    </row>
+    <row r="79" spans="1:28" ht="15" customHeight="1">
       <c r="A79" s="6" t="s">
         <v>343</v>
       </c>
@@ -3397,8 +4695,25 @@
       <c r="E79" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" ht="15" customHeight="1">
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+    </row>
+    <row r="80" spans="1:28" ht="15" customHeight="1">
       <c r="A80" s="6" t="s">
         <v>341</v>
       </c>
@@ -3414,8 +4729,25 @@
       <c r="E80" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" ht="15" customHeight="1">
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+    </row>
+    <row r="81" spans="1:28" ht="15" customHeight="1">
       <c r="A81" s="6" t="s">
         <v>340</v>
       </c>
@@ -3431,8 +4763,25 @@
       <c r="E81" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" ht="15" customHeight="1">
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+    </row>
+    <row r="82" spans="1:28" ht="15" customHeight="1">
       <c r="A82" s="6" t="s">
         <v>339</v>
       </c>
@@ -3445,8 +4794,25 @@
       <c r="D82" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" ht="15" customHeight="1">
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+    </row>
+    <row r="83" spans="1:28" ht="15" customHeight="1">
       <c r="A83" s="6" t="s">
         <v>337</v>
       </c>
@@ -3462,8 +4828,25 @@
       <c r="E83" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" ht="15" customHeight="1">
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+    </row>
+    <row r="84" spans="1:28" ht="15" customHeight="1">
       <c r="A84" s="6" t="s">
         <v>335</v>
       </c>
@@ -3479,8 +4862,25 @@
       <c r="E84" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="15" customHeight="1">
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+    </row>
+    <row r="85" spans="1:28" ht="15" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>334</v>
       </c>
@@ -3496,21 +4896,38 @@
       <c r="E85" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" ht="15" customHeight="1">
-      <c r="A86" s="13" t="s">
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+    </row>
+    <row r="86" spans="1:28" ht="15" customHeight="1">
+      <c r="A86" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="12" t="s">
+      <c r="B86" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="10" t="s">
         <v>331</v>
       </c>
       <c r="F86" s="9"/>
@@ -3518,21 +4935,25 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-    </row>
-    <row r="87" spans="1:23" ht="15" customHeight="1">
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+    </row>
+    <row r="87" spans="1:28" ht="15" customHeight="1">
       <c r="A87" s="6" t="s">
         <v>330</v>
       </c>
@@ -3548,8 +4969,25 @@
       <c r="E87" s="7" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" ht="15" customHeight="1">
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+    </row>
+    <row r="88" spans="1:28" ht="15" customHeight="1">
       <c r="A88" s="6" t="s">
         <v>328</v>
       </c>
@@ -3562,8 +5000,25 @@
       <c r="D88" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" ht="15" customHeight="1">
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+    </row>
+    <row r="89" spans="1:28" ht="15" customHeight="1">
       <c r="A89" s="6" t="s">
         <v>326</v>
       </c>
@@ -3576,8 +5031,25 @@
       <c r="D89" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" ht="15" customHeight="1">
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+    </row>
+    <row r="90" spans="1:28" ht="15" customHeight="1">
       <c r="A90" s="6" t="s">
         <v>325</v>
       </c>
@@ -3596,8 +5068,25 @@
       <c r="F90" s="8" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" ht="15" customHeight="1">
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+    </row>
+    <row r="91" spans="1:28" ht="15" customHeight="1">
       <c r="A91" s="6" t="s">
         <v>322</v>
       </c>
@@ -3613,8 +5102,25 @@
       <c r="E91" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" ht="15" customHeight="1">
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+    </row>
+    <row r="92" spans="1:28" ht="15" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>321</v>
       </c>
@@ -3630,8 +5136,25 @@
       <c r="E92" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" ht="15" customHeight="1">
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+    </row>
+    <row r="93" spans="1:28" ht="15" customHeight="1">
       <c r="A93" s="6" t="s">
         <v>319</v>
       </c>
@@ -3647,8 +5170,25 @@
       <c r="E93" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" ht="15" customHeight="1">
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+    </row>
+    <row r="94" spans="1:28" ht="15" customHeight="1">
       <c r="A94" s="6" t="s">
         <v>318</v>
       </c>
@@ -3664,8 +5204,25 @@
       <c r="E94" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" ht="15" customHeight="1">
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+    </row>
+    <row r="95" spans="1:28" ht="15" customHeight="1">
       <c r="A95" s="6" t="s">
         <v>316</v>
       </c>
@@ -3684,8 +5241,25 @@
       <c r="F95" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" ht="15" customHeight="1">
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+    </row>
+    <row r="96" spans="1:28" ht="15" customHeight="1">
       <c r="A96" s="6" t="s">
         <v>314</v>
       </c>
@@ -3701,8 +5275,25 @@
       <c r="E96" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1">
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+    </row>
+    <row r="97" spans="1:28" ht="15" customHeight="1">
       <c r="A97" s="6" t="s">
         <v>313</v>
       </c>
@@ -3724,8 +5315,25 @@
       <c r="G97" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1">
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+    </row>
+    <row r="98" spans="1:28" ht="15" customHeight="1">
       <c r="A98" s="6" t="s">
         <v>311</v>
       </c>
@@ -3741,8 +5349,25 @@
       <c r="E98" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1">
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+    </row>
+    <row r="99" spans="1:28" ht="15" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>310</v>
       </c>
@@ -3761,8 +5386,25 @@
       <c r="F99" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1">
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+    </row>
+    <row r="100" spans="1:28" ht="15" customHeight="1">
       <c r="A100" s="6" t="s">
         <v>308</v>
       </c>
@@ -3778,8 +5420,25 @@
       <c r="E100" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1">
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+    </row>
+    <row r="101" spans="1:28" ht="15" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>306</v>
       </c>
@@ -3798,8 +5457,25 @@
       <c r="G101" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1">
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+    </row>
+    <row r="102" spans="1:28" ht="15" customHeight="1">
       <c r="A102" s="6" t="s">
         <v>304</v>
       </c>
@@ -3818,8 +5494,25 @@
       <c r="F102" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1">
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+    </row>
+    <row r="103" spans="1:28" ht="15" customHeight="1">
       <c r="A103" s="6" t="s">
         <v>303</v>
       </c>
@@ -3835,8 +5528,25 @@
       <c r="E103" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1">
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+    </row>
+    <row r="104" spans="1:28" ht="15" customHeight="1">
       <c r="A104" s="6" t="s">
         <v>301</v>
       </c>
@@ -3849,8 +5559,25 @@
       <c r="D104" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1">
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+    </row>
+    <row r="105" spans="1:28" ht="15" customHeight="1">
       <c r="A105" s="6" t="s">
         <v>300</v>
       </c>
@@ -3863,8 +5590,25 @@
       <c r="D105" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1">
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+    </row>
+    <row r="106" spans="1:28" ht="15" customHeight="1">
       <c r="A106" s="6" t="s">
         <v>298</v>
       </c>
@@ -3880,8 +5624,25 @@
       <c r="E106" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1">
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="Z106"/>
+      <c r="AA106"/>
+      <c r="AB106"/>
+    </row>
+    <row r="107" spans="1:28" ht="15" customHeight="1">
       <c r="A107" s="6" t="s">
         <v>296</v>
       </c>
@@ -3894,8 +5655,25 @@
       <c r="D107" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1">
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+    </row>
+    <row r="108" spans="1:28" ht="15" customHeight="1">
       <c r="A108" s="6" t="s">
         <v>295</v>
       </c>
@@ -3911,8 +5689,25 @@
       <c r="E108" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1">
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+    </row>
+    <row r="109" spans="1:28" ht="15" customHeight="1">
       <c r="A109" s="6" t="s">
         <v>294</v>
       </c>
@@ -3928,8 +5723,25 @@
       <c r="E109" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1">
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+    </row>
+    <row r="110" spans="1:28" ht="15" customHeight="1">
       <c r="A110" s="6" t="s">
         <v>291</v>
       </c>
@@ -3948,8 +5760,25 @@
       <c r="F110" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1">
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+    </row>
+    <row r="111" spans="1:28" ht="15" customHeight="1">
       <c r="A111" s="6" t="s">
         <v>290</v>
       </c>
@@ -3968,8 +5797,25 @@
       <c r="F111" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1">
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+      <c r="AB111"/>
+    </row>
+    <row r="112" spans="1:28" ht="15" customHeight="1">
       <c r="A112" s="6" t="s">
         <v>289</v>
       </c>
@@ -3982,8 +5828,25 @@
       <c r="D112" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1">
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+    </row>
+    <row r="113" spans="1:28" ht="15" customHeight="1">
       <c r="A113" s="6" t="s">
         <v>286</v>
       </c>
@@ -3999,8 +5862,25 @@
       <c r="E113" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1">
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+    </row>
+    <row r="114" spans="1:28" ht="15" customHeight="1">
       <c r="A114" s="6" t="s">
         <v>285</v>
       </c>
@@ -4016,8 +5896,25 @@
       <c r="E114" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1">
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+    </row>
+    <row r="115" spans="1:28" ht="15" customHeight="1">
       <c r="A115" s="6" t="s">
         <v>284</v>
       </c>
@@ -4039,8 +5936,25 @@
       <c r="G115" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1">
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+    </row>
+    <row r="116" spans="1:28" ht="15" customHeight="1">
       <c r="A116" s="6" t="s">
         <v>282</v>
       </c>
@@ -4056,8 +5970,25 @@
       <c r="E116" s="7" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1">
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+    </row>
+    <row r="117" spans="1:28" ht="15" customHeight="1">
       <c r="A117" s="6" t="s">
         <v>280</v>
       </c>
@@ -4073,8 +6004,25 @@
       <c r="E117" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1">
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+    </row>
+    <row r="118" spans="1:28" ht="15" customHeight="1">
       <c r="A118" s="6" t="s">
         <v>277</v>
       </c>
@@ -4090,8 +6038,25 @@
       <c r="E118" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1">
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
+    </row>
+    <row r="119" spans="1:28" ht="15" customHeight="1">
       <c r="A119" s="6" t="s">
         <v>275</v>
       </c>
@@ -4107,8 +6072,25 @@
       <c r="E119" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1">
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+      <c r="AA119"/>
+      <c r="AB119"/>
+    </row>
+    <row r="120" spans="1:28" ht="15" customHeight="1">
       <c r="A120" s="6" t="s">
         <v>273</v>
       </c>
@@ -4121,8 +6103,25 @@
       <c r="D120" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1">
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+      <c r="AB120"/>
+    </row>
+    <row r="121" spans="1:28" ht="15" customHeight="1">
       <c r="A121" s="6" t="s">
         <v>271</v>
       </c>
@@ -4135,8 +6134,25 @@
       <c r="D121" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1">
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+      <c r="AB121"/>
+    </row>
+    <row r="122" spans="1:28" ht="15" customHeight="1">
       <c r="A122" s="6" t="s">
         <v>270</v>
       </c>
@@ -4149,8 +6165,25 @@
       <c r="D122" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1">
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+      <c r="Y122"/>
+      <c r="Z122"/>
+      <c r="AA122"/>
+      <c r="AB122"/>
+    </row>
+    <row r="123" spans="1:28" ht="15" customHeight="1">
       <c r="A123" s="6" t="s">
         <v>267</v>
       </c>
@@ -4163,8 +6196,25 @@
       <c r="D123" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1">
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+      <c r="Y123"/>
+      <c r="Z123"/>
+      <c r="AA123"/>
+      <c r="AB123"/>
+    </row>
+    <row r="124" spans="1:28" ht="15" customHeight="1">
       <c r="A124" s="6" t="s">
         <v>266</v>
       </c>
@@ -4180,8 +6230,25 @@
       <c r="E124" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1">
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+      <c r="Y124"/>
+      <c r="Z124"/>
+      <c r="AA124"/>
+      <c r="AB124"/>
+    </row>
+    <row r="125" spans="1:28" ht="15" customHeight="1">
       <c r="A125" s="6" t="s">
         <v>264</v>
       </c>
@@ -4194,8 +6261,25 @@
       <c r="D125" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1">
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
+      <c r="X125"/>
+      <c r="Y125"/>
+      <c r="Z125"/>
+      <c r="AA125"/>
+      <c r="AB125"/>
+    </row>
+    <row r="126" spans="1:28" ht="15" customHeight="1">
       <c r="A126" s="6" t="s">
         <v>263</v>
       </c>
@@ -4208,8 +6292,25 @@
       <c r="D126" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1">
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+      <c r="Y126"/>
+      <c r="Z126"/>
+      <c r="AA126"/>
+      <c r="AB126"/>
+    </row>
+    <row r="127" spans="1:28" ht="15" customHeight="1">
       <c r="A127" s="6" t="s">
         <v>261</v>
       </c>
@@ -4225,8 +6326,25 @@
       <c r="E127" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1">
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127"/>
+      <c r="X127"/>
+      <c r="Y127"/>
+      <c r="Z127"/>
+      <c r="AA127"/>
+      <c r="AB127"/>
+    </row>
+    <row r="128" spans="1:28" ht="15" customHeight="1">
       <c r="A128" s="6" t="s">
         <v>260</v>
       </c>
@@ -4239,8 +6357,25 @@
       <c r="D128" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1">
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+      <c r="AA128"/>
+      <c r="AB128"/>
+    </row>
+    <row r="129" spans="1:28" ht="15" customHeight="1">
       <c r="A129" s="6" t="s">
         <v>257</v>
       </c>
@@ -4259,8 +6394,25 @@
       <c r="F129" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1">
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
+      <c r="AA129"/>
+      <c r="AB129"/>
+    </row>
+    <row r="130" spans="1:28" ht="15" customHeight="1">
       <c r="A130" s="6" t="s">
         <v>254</v>
       </c>
@@ -4279,8 +6431,25 @@
       <c r="F130" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1">
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+      <c r="AA130"/>
+      <c r="AB130"/>
+    </row>
+    <row r="131" spans="1:28" ht="15" customHeight="1">
       <c r="A131" s="6" t="s">
         <v>251</v>
       </c>
@@ -4293,8 +6462,25 @@
       <c r="D131" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1">
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+      <c r="AB131"/>
+    </row>
+    <row r="132" spans="1:28" ht="15" customHeight="1">
       <c r="A132" s="6" t="s">
         <v>250</v>
       </c>
@@ -4313,8 +6499,25 @@
       <c r="F132" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1">
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+      <c r="AB132"/>
+    </row>
+    <row r="133" spans="1:28" ht="15" customHeight="1">
       <c r="A133" s="6" t="s">
         <v>249</v>
       </c>
@@ -4333,8 +6536,25 @@
       <c r="F133" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1">
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+      <c r="Y133"/>
+      <c r="Z133"/>
+      <c r="AA133"/>
+      <c r="AB133"/>
+    </row>
+    <row r="134" spans="1:28" ht="15" customHeight="1">
       <c r="A134" s="6" t="s">
         <v>247</v>
       </c>
@@ -4350,8 +6570,25 @@
       <c r="E134" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1">
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+      <c r="AA134"/>
+      <c r="AB134"/>
+    </row>
+    <row r="135" spans="1:28" ht="15" customHeight="1">
       <c r="A135" s="6" t="s">
         <v>246</v>
       </c>
@@ -4367,8 +6604,25 @@
       <c r="E135" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1">
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+      <c r="AB135"/>
+    </row>
+    <row r="136" spans="1:28" ht="15" customHeight="1">
       <c r="A136" s="6" t="s">
         <v>244</v>
       </c>
@@ -4384,8 +6638,25 @@
       <c r="E136" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1">
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136"/>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+      <c r="AB136"/>
+    </row>
+    <row r="137" spans="1:28" ht="15" customHeight="1">
       <c r="A137" s="6" t="s">
         <v>241</v>
       </c>
@@ -4398,8 +6669,25 @@
       <c r="D137" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1">
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+      <c r="AA137"/>
+      <c r="AB137"/>
+    </row>
+    <row r="138" spans="1:28" ht="15" customHeight="1">
       <c r="A138" s="6" t="s">
         <v>240</v>
       </c>
@@ -4415,8 +6703,25 @@
       <c r="E138" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1">
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
+      <c r="AA138"/>
+      <c r="AB138"/>
+    </row>
+    <row r="139" spans="1:28" ht="15" customHeight="1">
       <c r="A139" s="6" t="s">
         <v>236</v>
       </c>
@@ -4432,8 +6737,25 @@
       <c r="E139" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1">
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+      <c r="AA139"/>
+      <c r="AB139"/>
+    </row>
+    <row r="140" spans="1:28" ht="15" customHeight="1">
       <c r="A140" s="6" t="s">
         <v>232</v>
       </c>
@@ -4446,8 +6768,25 @@
       <c r="D140" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1">
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
+      <c r="X140"/>
+      <c r="Y140"/>
+      <c r="Z140"/>
+      <c r="AA140"/>
+      <c r="AB140"/>
+    </row>
+    <row r="141" spans="1:28" ht="15" customHeight="1">
       <c r="A141" s="6" t="s">
         <v>231</v>
       </c>
@@ -4460,8 +6799,25 @@
       <c r="D141" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1">
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+      <c r="AB141"/>
+    </row>
+    <row r="142" spans="1:28" ht="15" customHeight="1">
       <c r="A142" s="6" t="s">
         <v>230</v>
       </c>
@@ -4477,8 +6833,25 @@
       <c r="E142" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1">
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+      <c r="AB142"/>
+    </row>
+    <row r="143" spans="1:28" ht="15" customHeight="1">
       <c r="A143" s="6" t="s">
         <v>229</v>
       </c>
@@ -4494,8 +6867,25 @@
       <c r="E143" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1">
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
+      <c r="X143"/>
+      <c r="Y143"/>
+      <c r="Z143"/>
+      <c r="AA143"/>
+      <c r="AB143"/>
+    </row>
+    <row r="144" spans="1:28" ht="15" customHeight="1">
       <c r="A144" s="6" t="s">
         <v>228</v>
       </c>
@@ -4514,8 +6904,25 @@
       <c r="F144" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" ht="15" customHeight="1">
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+      <c r="AA144"/>
+      <c r="AB144"/>
+    </row>
+    <row r="145" spans="1:28" ht="15" customHeight="1">
       <c r="A145" s="6" t="s">
         <v>227</v>
       </c>
@@ -4528,8 +6935,25 @@
       <c r="D145" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" ht="15" customHeight="1">
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+      <c r="Y145"/>
+      <c r="Z145"/>
+      <c r="AA145"/>
+      <c r="AB145"/>
+    </row>
+    <row r="146" spans="1:28" ht="15" customHeight="1">
       <c r="A146" s="6" t="s">
         <v>224</v>
       </c>
@@ -4545,8 +6969,25 @@
       <c r="E146" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" ht="15" customHeight="1">
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146"/>
+      <c r="AA146"/>
+      <c r="AB146"/>
+    </row>
+    <row r="147" spans="1:28" ht="15" customHeight="1">
       <c r="A147" s="6" t="s">
         <v>221</v>
       </c>
@@ -4562,8 +7003,25 @@
       <c r="E147" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" ht="15" customHeight="1">
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+      <c r="AA147"/>
+      <c r="AB147"/>
+    </row>
+    <row r="148" spans="1:28" ht="15" customHeight="1">
       <c r="A148" s="6" t="s">
         <v>219</v>
       </c>
@@ -4579,8 +7037,25 @@
       <c r="E148" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" ht="15" customHeight="1">
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+      <c r="AA148"/>
+      <c r="AB148"/>
+    </row>
+    <row r="149" spans="1:28" ht="15" customHeight="1">
       <c r="A149" s="6" t="s">
         <v>217</v>
       </c>
@@ -4599,8 +7074,25 @@
       <c r="F149" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" ht="15" customHeight="1">
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+      <c r="Y149"/>
+      <c r="Z149"/>
+      <c r="AA149"/>
+      <c r="AB149"/>
+    </row>
+    <row r="150" spans="1:28" ht="15" customHeight="1">
       <c r="A150" s="6" t="s">
         <v>215</v>
       </c>
@@ -4616,8 +7108,25 @@
       <c r="E150" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" ht="15" customHeight="1">
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+      <c r="Y150"/>
+      <c r="Z150"/>
+      <c r="AA150"/>
+      <c r="AB150"/>
+    </row>
+    <row r="151" spans="1:28" ht="15" customHeight="1">
       <c r="A151" s="6" t="s">
         <v>213</v>
       </c>
@@ -4636,21 +7145,38 @@
       <c r="F151" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" ht="15" customHeight="1">
-      <c r="A152" s="13" t="s">
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+      <c r="AB151"/>
+    </row>
+    <row r="152" spans="1:28" ht="15" customHeight="1">
+      <c r="A152" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B152" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="12" t="s">
+      <c r="B152" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E152" s="10" t="s">
         <v>208</v>
       </c>
       <c r="F152" s="9"/>
@@ -4658,21 +7184,25 @@
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
-      <c r="N152" s="9"/>
-      <c r="O152" s="9"/>
-      <c r="P152" s="9"/>
-      <c r="Q152" s="9"/>
-      <c r="R152" s="9"/>
-      <c r="S152" s="9"/>
-      <c r="T152" s="9"/>
-      <c r="U152" s="9"/>
-      <c r="V152" s="9"/>
-      <c r="W152" s="9"/>
-    </row>
-    <row r="153" spans="1:23" ht="15" customHeight="1">
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+      <c r="AB152"/>
+    </row>
+    <row r="153" spans="1:28" ht="15" customHeight="1">
       <c r="A153" s="6" t="s">
         <v>207</v>
       </c>
@@ -4691,8 +7221,25 @@
       <c r="F153" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" ht="15" customHeight="1">
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+      <c r="S153"/>
+      <c r="T153"/>
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+      <c r="X153"/>
+      <c r="Y153"/>
+      <c r="Z153"/>
+      <c r="AA153"/>
+      <c r="AB153"/>
+    </row>
+    <row r="154" spans="1:28" ht="15" customHeight="1">
       <c r="A154" s="6" t="s">
         <v>204</v>
       </c>
@@ -4711,8 +7258,25 @@
       <c r="F154" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" ht="15" customHeight="1">
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+      <c r="Y154"/>
+      <c r="Z154"/>
+      <c r="AA154"/>
+      <c r="AB154"/>
+    </row>
+    <row r="155" spans="1:28" ht="15" customHeight="1">
       <c r="A155" s="6" t="s">
         <v>203</v>
       </c>
@@ -4728,8 +7292,25 @@
       <c r="E155" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" ht="15" customHeight="1">
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+      <c r="Y155"/>
+      <c r="Z155"/>
+      <c r="AA155"/>
+      <c r="AB155"/>
+    </row>
+    <row r="156" spans="1:28" ht="15" customHeight="1">
       <c r="A156" s="6" t="s">
         <v>201</v>
       </c>
@@ -4745,8 +7326,25 @@
       <c r="E156" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" ht="15" customHeight="1">
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+      <c r="Y156"/>
+      <c r="Z156"/>
+      <c r="AA156"/>
+      <c r="AB156"/>
+    </row>
+    <row r="157" spans="1:28" ht="15" customHeight="1">
       <c r="A157" s="6" t="s">
         <v>199</v>
       </c>
@@ -4762,8 +7360,25 @@
       <c r="E157" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" ht="15" customHeight="1">
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+      <c r="Y157"/>
+      <c r="Z157"/>
+      <c r="AA157"/>
+      <c r="AB157"/>
+    </row>
+    <row r="158" spans="1:28" ht="15" customHeight="1">
       <c r="A158" s="6" t="s">
         <v>198</v>
       </c>
@@ -4779,8 +7394,25 @@
       <c r="E158" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" ht="15" customHeight="1">
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+      <c r="S158"/>
+      <c r="T158"/>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+      <c r="X158"/>
+      <c r="Y158"/>
+      <c r="Z158"/>
+      <c r="AA158"/>
+      <c r="AB158"/>
+    </row>
+    <row r="159" spans="1:28" ht="15" customHeight="1">
       <c r="A159" s="6" t="s">
         <v>197</v>
       </c>
@@ -4799,8 +7431,25 @@
       <c r="F159" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" ht="15" customHeight="1">
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159"/>
+      <c r="S159"/>
+      <c r="T159"/>
+      <c r="U159"/>
+      <c r="V159"/>
+      <c r="W159"/>
+      <c r="X159"/>
+      <c r="Y159"/>
+      <c r="Z159"/>
+      <c r="AA159"/>
+      <c r="AB159"/>
+    </row>
+    <row r="160" spans="1:28" ht="15" customHeight="1">
       <c r="A160" s="6" t="s">
         <v>194</v>
       </c>
@@ -4816,8 +7465,25 @@
       <c r="E160" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1">
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+      <c r="R160"/>
+      <c r="S160"/>
+      <c r="T160"/>
+      <c r="U160"/>
+      <c r="V160"/>
+      <c r="W160"/>
+      <c r="X160"/>
+      <c r="Y160"/>
+      <c r="Z160"/>
+      <c r="AA160"/>
+      <c r="AB160"/>
+    </row>
+    <row r="161" spans="1:28" ht="15" customHeight="1">
       <c r="A161" s="6" t="s">
         <v>193</v>
       </c>
@@ -4830,8 +7496,25 @@
       <c r="D161" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1">
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
+      <c r="R161"/>
+      <c r="S161"/>
+      <c r="T161"/>
+      <c r="U161"/>
+      <c r="V161"/>
+      <c r="W161"/>
+      <c r="X161"/>
+      <c r="Y161"/>
+      <c r="Z161"/>
+      <c r="AA161"/>
+      <c r="AB161"/>
+    </row>
+    <row r="162" spans="1:28" ht="15" customHeight="1">
       <c r="A162" s="6" t="s">
         <v>190</v>
       </c>
@@ -4847,8 +7530,25 @@
       <c r="E162" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1">
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162"/>
+      <c r="R162"/>
+      <c r="S162"/>
+      <c r="T162"/>
+      <c r="U162"/>
+      <c r="V162"/>
+      <c r="W162"/>
+      <c r="X162"/>
+      <c r="Y162"/>
+      <c r="Z162"/>
+      <c r="AA162"/>
+      <c r="AB162"/>
+    </row>
+    <row r="163" spans="1:28" ht="15" customHeight="1">
       <c r="A163" s="6" t="s">
         <v>189</v>
       </c>
@@ -4867,8 +7567,25 @@
       <c r="F163" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1">
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+      <c r="Q163"/>
+      <c r="R163"/>
+      <c r="S163"/>
+      <c r="T163"/>
+      <c r="U163"/>
+      <c r="V163"/>
+      <c r="W163"/>
+      <c r="X163"/>
+      <c r="Y163"/>
+      <c r="Z163"/>
+      <c r="AA163"/>
+      <c r="AB163"/>
+    </row>
+    <row r="164" spans="1:28" ht="15" customHeight="1">
       <c r="A164" s="6" t="s">
         <v>187</v>
       </c>
@@ -4881,8 +7598,25 @@
       <c r="D164" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1">
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+      <c r="Q164"/>
+      <c r="R164"/>
+      <c r="S164"/>
+      <c r="T164"/>
+      <c r="U164"/>
+      <c r="V164"/>
+      <c r="W164"/>
+      <c r="X164"/>
+      <c r="Y164"/>
+      <c r="Z164"/>
+      <c r="AA164"/>
+      <c r="AB164"/>
+    </row>
+    <row r="165" spans="1:28" ht="15" customHeight="1">
       <c r="A165" s="6" t="s">
         <v>185</v>
       </c>
@@ -4898,8 +7632,25 @@
       <c r="E165" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1">
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+      <c r="Q165"/>
+      <c r="R165"/>
+      <c r="S165"/>
+      <c r="T165"/>
+      <c r="U165"/>
+      <c r="V165"/>
+      <c r="W165"/>
+      <c r="X165"/>
+      <c r="Y165"/>
+      <c r="Z165"/>
+      <c r="AA165"/>
+      <c r="AB165"/>
+    </row>
+    <row r="166" spans="1:28" ht="15" customHeight="1">
       <c r="A166" s="6" t="s">
         <v>183</v>
       </c>
@@ -4915,8 +7666,25 @@
       <c r="E166" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1">
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166"/>
+      <c r="Q166"/>
+      <c r="R166"/>
+      <c r="S166"/>
+      <c r="T166"/>
+      <c r="U166"/>
+      <c r="V166"/>
+      <c r="W166"/>
+      <c r="X166"/>
+      <c r="Y166"/>
+      <c r="Z166"/>
+      <c r="AA166"/>
+      <c r="AB166"/>
+    </row>
+    <row r="167" spans="1:28" ht="15" customHeight="1">
       <c r="A167" s="6" t="s">
         <v>179</v>
       </c>
@@ -4935,8 +7703,25 @@
       <c r="F167" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1">
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+      <c r="Q167"/>
+      <c r="R167"/>
+      <c r="S167"/>
+      <c r="T167"/>
+      <c r="U167"/>
+      <c r="V167"/>
+      <c r="W167"/>
+      <c r="X167"/>
+      <c r="Y167"/>
+      <c r="Z167"/>
+      <c r="AA167"/>
+      <c r="AB167"/>
+    </row>
+    <row r="168" spans="1:28" ht="15" customHeight="1">
       <c r="A168" s="6" t="s">
         <v>175</v>
       </c>
@@ -4949,8 +7734,25 @@
       <c r="D168" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1">
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+      <c r="Q168"/>
+      <c r="R168"/>
+      <c r="S168"/>
+      <c r="T168"/>
+      <c r="U168"/>
+      <c r="V168"/>
+      <c r="W168"/>
+      <c r="X168"/>
+      <c r="Y168"/>
+      <c r="Z168"/>
+      <c r="AA168"/>
+      <c r="AB168"/>
+    </row>
+    <row r="169" spans="1:28" ht="15" customHeight="1">
       <c r="A169" s="6" t="s">
         <v>174</v>
       </c>
@@ -4969,8 +7771,25 @@
       <c r="F169" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1">
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+      <c r="Q169"/>
+      <c r="R169"/>
+      <c r="S169"/>
+      <c r="T169"/>
+      <c r="U169"/>
+      <c r="V169"/>
+      <c r="W169"/>
+      <c r="X169"/>
+      <c r="Y169"/>
+      <c r="Z169"/>
+      <c r="AA169"/>
+      <c r="AB169"/>
+    </row>
+    <row r="170" spans="1:28" ht="15" customHeight="1">
       <c r="A170" s="6" t="s">
         <v>172</v>
       </c>
@@ -4986,8 +7805,25 @@
       <c r="E170" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1">
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+      <c r="Q170"/>
+      <c r="R170"/>
+      <c r="S170"/>
+      <c r="T170"/>
+      <c r="U170"/>
+      <c r="V170"/>
+      <c r="W170"/>
+      <c r="X170"/>
+      <c r="Y170"/>
+      <c r="Z170"/>
+      <c r="AA170"/>
+      <c r="AB170"/>
+    </row>
+    <row r="171" spans="1:28" ht="15" customHeight="1">
       <c r="A171" s="6" t="s">
         <v>170</v>
       </c>
@@ -5006,8 +7842,25 @@
       <c r="F171" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1">
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+      <c r="Q171"/>
+      <c r="R171"/>
+      <c r="S171"/>
+      <c r="T171"/>
+      <c r="U171"/>
+      <c r="V171"/>
+      <c r="W171"/>
+      <c r="X171"/>
+      <c r="Y171"/>
+      <c r="Z171"/>
+      <c r="AA171"/>
+      <c r="AB171"/>
+    </row>
+    <row r="172" spans="1:28" ht="15" customHeight="1">
       <c r="A172" s="6" t="s">
         <v>169</v>
       </c>
@@ -5020,8 +7873,25 @@
       <c r="D172" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1">
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+      <c r="Q172"/>
+      <c r="R172"/>
+      <c r="S172"/>
+      <c r="T172"/>
+      <c r="U172"/>
+      <c r="V172"/>
+      <c r="W172"/>
+      <c r="X172"/>
+      <c r="Y172"/>
+      <c r="Z172"/>
+      <c r="AA172"/>
+      <c r="AB172"/>
+    </row>
+    <row r="173" spans="1:28" ht="15" customHeight="1">
       <c r="A173" s="6" t="s">
         <v>167</v>
       </c>
@@ -5037,8 +7907,25 @@
       <c r="E173" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1">
+      <c r="L173"/>
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+      <c r="Q173"/>
+      <c r="R173"/>
+      <c r="S173"/>
+      <c r="T173"/>
+      <c r="U173"/>
+      <c r="V173"/>
+      <c r="W173"/>
+      <c r="X173"/>
+      <c r="Y173"/>
+      <c r="Z173"/>
+      <c r="AA173"/>
+      <c r="AB173"/>
+    </row>
+    <row r="174" spans="1:28" ht="15" customHeight="1">
       <c r="A174" s="6" t="s">
         <v>163</v>
       </c>
@@ -5060,8 +7947,25 @@
       <c r="G174" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1">
+      <c r="L174"/>
+      <c r="M174"/>
+      <c r="N174"/>
+      <c r="O174"/>
+      <c r="P174"/>
+      <c r="Q174"/>
+      <c r="R174"/>
+      <c r="S174"/>
+      <c r="T174"/>
+      <c r="U174"/>
+      <c r="V174"/>
+      <c r="W174"/>
+      <c r="X174"/>
+      <c r="Y174"/>
+      <c r="Z174"/>
+      <c r="AA174"/>
+      <c r="AB174"/>
+    </row>
+    <row r="175" spans="1:28" ht="15" customHeight="1">
       <c r="A175" s="6" t="s">
         <v>159</v>
       </c>
@@ -5080,8 +7984,25 @@
       <c r="F175" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="15" customHeight="1">
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+      <c r="Q175"/>
+      <c r="R175"/>
+      <c r="S175"/>
+      <c r="T175"/>
+      <c r="U175"/>
+      <c r="V175"/>
+      <c r="W175"/>
+      <c r="X175"/>
+      <c r="Y175"/>
+      <c r="Z175"/>
+      <c r="AA175"/>
+      <c r="AB175"/>
+    </row>
+    <row r="176" spans="1:28" ht="15" customHeight="1">
       <c r="A176" s="6" t="s">
         <v>155</v>
       </c>
@@ -5103,8 +8024,25 @@
       <c r="G176" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1">
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+      <c r="Q176"/>
+      <c r="R176"/>
+      <c r="S176"/>
+      <c r="T176"/>
+      <c r="U176"/>
+      <c r="V176"/>
+      <c r="W176"/>
+      <c r="X176"/>
+      <c r="Y176"/>
+      <c r="Z176"/>
+      <c r="AA176"/>
+      <c r="AB176"/>
+    </row>
+    <row r="177" spans="1:28" ht="15" customHeight="1">
       <c r="A177" s="6" t="s">
         <v>154</v>
       </c>
@@ -5120,8 +8058,25 @@
       <c r="E177" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="15" customHeight="1">
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+      <c r="Q177"/>
+      <c r="R177"/>
+      <c r="S177"/>
+      <c r="T177"/>
+      <c r="U177"/>
+      <c r="V177"/>
+      <c r="W177"/>
+      <c r="X177"/>
+      <c r="Y177"/>
+      <c r="Z177"/>
+      <c r="AA177"/>
+      <c r="AB177"/>
+    </row>
+    <row r="178" spans="1:28" ht="15" customHeight="1">
       <c r="A178" s="6" t="s">
         <v>151</v>
       </c>
@@ -5140,8 +8095,25 @@
       <c r="F178" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="15" customHeight="1">
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+      <c r="Q178"/>
+      <c r="R178"/>
+      <c r="S178"/>
+      <c r="T178"/>
+      <c r="U178"/>
+      <c r="V178"/>
+      <c r="W178"/>
+      <c r="X178"/>
+      <c r="Y178"/>
+      <c r="Z178"/>
+      <c r="AA178"/>
+      <c r="AB178"/>
+    </row>
+    <row r="179" spans="1:28" ht="15" customHeight="1">
       <c r="A179" s="6" t="s">
         <v>149</v>
       </c>
@@ -5163,8 +8135,25 @@
       <c r="G179" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1">
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+      <c r="Q179"/>
+      <c r="R179"/>
+      <c r="S179"/>
+      <c r="T179"/>
+      <c r="U179"/>
+      <c r="V179"/>
+      <c r="W179"/>
+      <c r="X179"/>
+      <c r="Y179"/>
+      <c r="Z179"/>
+      <c r="AA179"/>
+      <c r="AB179"/>
+    </row>
+    <row r="180" spans="1:28" ht="15" customHeight="1">
       <c r="A180" s="6" t="s">
         <v>146</v>
       </c>
@@ -5180,8 +8169,25 @@
       <c r="E180" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="15" customHeight="1">
+      <c r="L180"/>
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180"/>
+      <c r="Q180"/>
+      <c r="R180"/>
+      <c r="S180"/>
+      <c r="T180"/>
+      <c r="U180"/>
+      <c r="V180"/>
+      <c r="W180"/>
+      <c r="X180"/>
+      <c r="Y180"/>
+      <c r="Z180"/>
+      <c r="AA180"/>
+      <c r="AB180"/>
+    </row>
+    <row r="181" spans="1:28" ht="15" customHeight="1">
       <c r="A181" s="6" t="s">
         <v>143</v>
       </c>
@@ -5197,8 +8203,25 @@
       <c r="E181" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="15" customHeight="1">
+      <c r="L181"/>
+      <c r="M181"/>
+      <c r="N181"/>
+      <c r="O181"/>
+      <c r="P181"/>
+      <c r="Q181"/>
+      <c r="R181"/>
+      <c r="S181"/>
+      <c r="T181"/>
+      <c r="U181"/>
+      <c r="V181"/>
+      <c r="W181"/>
+      <c r="X181"/>
+      <c r="Y181"/>
+      <c r="Z181"/>
+      <c r="AA181"/>
+      <c r="AB181"/>
+    </row>
+    <row r="182" spans="1:28" ht="15" customHeight="1">
       <c r="A182" s="6" t="s">
         <v>142</v>
       </c>
@@ -5217,8 +8240,25 @@
       <c r="F182" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1">
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182"/>
+      <c r="Q182"/>
+      <c r="R182"/>
+      <c r="S182"/>
+      <c r="T182"/>
+      <c r="U182"/>
+      <c r="V182"/>
+      <c r="W182"/>
+      <c r="X182"/>
+      <c r="Y182"/>
+      <c r="Z182"/>
+      <c r="AA182"/>
+      <c r="AB182"/>
+    </row>
+    <row r="183" spans="1:28" ht="15" customHeight="1">
       <c r="A183" s="6" t="s">
         <v>140</v>
       </c>
@@ -5234,8 +8274,25 @@
       <c r="E183" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="15" customHeight="1">
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183"/>
+      <c r="P183"/>
+      <c r="Q183"/>
+      <c r="R183"/>
+      <c r="S183"/>
+      <c r="T183"/>
+      <c r="U183"/>
+      <c r="V183"/>
+      <c r="W183"/>
+      <c r="X183"/>
+      <c r="Y183"/>
+      <c r="Z183"/>
+      <c r="AA183"/>
+      <c r="AB183"/>
+    </row>
+    <row r="184" spans="1:28" ht="15" customHeight="1">
       <c r="A184" s="6" t="s">
         <v>139</v>
       </c>
@@ -5257,8 +8314,25 @@
       <c r="G184" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="15" customHeight="1">
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="O184"/>
+      <c r="P184"/>
+      <c r="Q184"/>
+      <c r="R184"/>
+      <c r="S184"/>
+      <c r="T184"/>
+      <c r="U184"/>
+      <c r="V184"/>
+      <c r="W184"/>
+      <c r="X184"/>
+      <c r="Y184"/>
+      <c r="Z184"/>
+      <c r="AA184"/>
+      <c r="AB184"/>
+    </row>
+    <row r="185" spans="1:28" ht="15" customHeight="1">
       <c r="A185" s="6" t="s">
         <v>135</v>
       </c>
@@ -5277,8 +8351,25 @@
       <c r="F185" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="15" customHeight="1">
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185"/>
+      <c r="Q185"/>
+      <c r="R185"/>
+      <c r="S185"/>
+      <c r="T185"/>
+      <c r="U185"/>
+      <c r="V185"/>
+      <c r="W185"/>
+      <c r="X185"/>
+      <c r="Y185"/>
+      <c r="Z185"/>
+      <c r="AA185"/>
+      <c r="AB185"/>
+    </row>
+    <row r="186" spans="1:28" ht="15" customHeight="1">
       <c r="A186" s="6" t="s">
         <v>133</v>
       </c>
@@ -5294,8 +8385,25 @@
       <c r="E186" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="15" customHeight="1">
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186"/>
+      <c r="P186"/>
+      <c r="Q186"/>
+      <c r="R186"/>
+      <c r="S186"/>
+      <c r="T186"/>
+      <c r="U186"/>
+      <c r="V186"/>
+      <c r="W186"/>
+      <c r="X186"/>
+      <c r="Y186"/>
+      <c r="Z186"/>
+      <c r="AA186"/>
+      <c r="AB186"/>
+    </row>
+    <row r="187" spans="1:28" ht="15" customHeight="1">
       <c r="A187" s="6" t="s">
         <v>129</v>
       </c>
@@ -5314,8 +8422,25 @@
       <c r="F187" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="15" customHeight="1">
+      <c r="L187"/>
+      <c r="M187"/>
+      <c r="N187"/>
+      <c r="O187"/>
+      <c r="P187"/>
+      <c r="Q187"/>
+      <c r="R187"/>
+      <c r="S187"/>
+      <c r="T187"/>
+      <c r="U187"/>
+      <c r="V187"/>
+      <c r="W187"/>
+      <c r="X187"/>
+      <c r="Y187"/>
+      <c r="Z187"/>
+      <c r="AA187"/>
+      <c r="AB187"/>
+    </row>
+    <row r="188" spans="1:28" ht="15" customHeight="1">
       <c r="A188" s="6" t="s">
         <v>128</v>
       </c>
@@ -5334,8 +8459,25 @@
       <c r="F188" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="15" customHeight="1">
+      <c r="L188"/>
+      <c r="M188"/>
+      <c r="N188"/>
+      <c r="O188"/>
+      <c r="P188"/>
+      <c r="Q188"/>
+      <c r="R188"/>
+      <c r="S188"/>
+      <c r="T188"/>
+      <c r="U188"/>
+      <c r="V188"/>
+      <c r="W188"/>
+      <c r="X188"/>
+      <c r="Y188"/>
+      <c r="Z188"/>
+      <c r="AA188"/>
+      <c r="AB188"/>
+    </row>
+    <row r="189" spans="1:28" ht="15" customHeight="1">
       <c r="A189" s="6" t="s">
         <v>123</v>
       </c>
@@ -5354,8 +8496,25 @@
       <c r="F189" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="15" customHeight="1">
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189"/>
+      <c r="O189"/>
+      <c r="P189"/>
+      <c r="Q189"/>
+      <c r="R189"/>
+      <c r="S189"/>
+      <c r="T189"/>
+      <c r="U189"/>
+      <c r="V189"/>
+      <c r="W189"/>
+      <c r="X189"/>
+      <c r="Y189"/>
+      <c r="Z189"/>
+      <c r="AA189"/>
+      <c r="AB189"/>
+    </row>
+    <row r="190" spans="1:28" ht="15" customHeight="1">
       <c r="A190" s="6" t="s">
         <v>121</v>
       </c>
@@ -5371,8 +8530,25 @@
       <c r="E190" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1">
+      <c r="L190"/>
+      <c r="M190"/>
+      <c r="N190"/>
+      <c r="O190"/>
+      <c r="P190"/>
+      <c r="Q190"/>
+      <c r="R190"/>
+      <c r="S190"/>
+      <c r="T190"/>
+      <c r="U190"/>
+      <c r="V190"/>
+      <c r="W190"/>
+      <c r="X190"/>
+      <c r="Y190"/>
+      <c r="Z190"/>
+      <c r="AA190"/>
+      <c r="AB190"/>
+    </row>
+    <row r="191" spans="1:28" ht="15" customHeight="1">
       <c r="A191" s="6" t="s">
         <v>120</v>
       </c>
@@ -5391,8 +8567,25 @@
       <c r="F191" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1">
+      <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191"/>
+      <c r="O191"/>
+      <c r="P191"/>
+      <c r="Q191"/>
+      <c r="R191"/>
+      <c r="S191"/>
+      <c r="T191"/>
+      <c r="U191"/>
+      <c r="V191"/>
+      <c r="W191"/>
+      <c r="X191"/>
+      <c r="Y191"/>
+      <c r="Z191"/>
+      <c r="AA191"/>
+      <c r="AB191"/>
+    </row>
+    <row r="192" spans="1:28" ht="15" customHeight="1">
       <c r="A192" s="6" t="s">
         <v>118</v>
       </c>
@@ -5408,8 +8601,25 @@
       <c r="E192" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" ht="15" customHeight="1">
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
+      <c r="O192"/>
+      <c r="P192"/>
+      <c r="Q192"/>
+      <c r="R192"/>
+      <c r="S192"/>
+      <c r="T192"/>
+      <c r="U192"/>
+      <c r="V192"/>
+      <c r="W192"/>
+      <c r="X192"/>
+      <c r="Y192"/>
+      <c r="Z192"/>
+      <c r="AA192"/>
+      <c r="AB192"/>
+    </row>
+    <row r="193" spans="1:28" ht="15" customHeight="1">
       <c r="A193" s="6" t="s">
         <v>117</v>
       </c>
@@ -5425,8 +8635,25 @@
       <c r="E193" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" ht="15" customHeight="1">
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
+      <c r="O193"/>
+      <c r="P193"/>
+      <c r="Q193"/>
+      <c r="R193"/>
+      <c r="S193"/>
+      <c r="T193"/>
+      <c r="U193"/>
+      <c r="V193"/>
+      <c r="W193"/>
+      <c r="X193"/>
+      <c r="Y193"/>
+      <c r="Z193"/>
+      <c r="AA193"/>
+      <c r="AB193"/>
+    </row>
+    <row r="194" spans="1:28" ht="15" customHeight="1">
       <c r="A194" s="6" t="s">
         <v>115</v>
       </c>
@@ -5442,8 +8669,25 @@
       <c r="E194" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" ht="15" customHeight="1">
+      <c r="L194"/>
+      <c r="M194"/>
+      <c r="N194"/>
+      <c r="O194"/>
+      <c r="P194"/>
+      <c r="Q194"/>
+      <c r="R194"/>
+      <c r="S194"/>
+      <c r="T194"/>
+      <c r="U194"/>
+      <c r="V194"/>
+      <c r="W194"/>
+      <c r="X194"/>
+      <c r="Y194"/>
+      <c r="Z194"/>
+      <c r="AA194"/>
+      <c r="AB194"/>
+    </row>
+    <row r="195" spans="1:28" ht="15" customHeight="1">
       <c r="A195" s="6" t="s">
         <v>111</v>
       </c>
@@ -5465,8 +8709,25 @@
       <c r="G195" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" ht="15" customHeight="1">
+      <c r="L195"/>
+      <c r="M195"/>
+      <c r="N195"/>
+      <c r="O195"/>
+      <c r="P195"/>
+      <c r="Q195"/>
+      <c r="R195"/>
+      <c r="S195"/>
+      <c r="T195"/>
+      <c r="U195"/>
+      <c r="V195"/>
+      <c r="W195"/>
+      <c r="X195"/>
+      <c r="Y195"/>
+      <c r="Z195"/>
+      <c r="AA195"/>
+      <c r="AB195"/>
+    </row>
+    <row r="196" spans="1:28" ht="15" customHeight="1">
       <c r="A196" s="6" t="s">
         <v>109</v>
       </c>
@@ -5488,8 +8749,25 @@
       <c r="G196" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" ht="15" customHeight="1">
+      <c r="L196"/>
+      <c r="M196"/>
+      <c r="N196"/>
+      <c r="O196"/>
+      <c r="P196"/>
+      <c r="Q196"/>
+      <c r="R196"/>
+      <c r="S196"/>
+      <c r="T196"/>
+      <c r="U196"/>
+      <c r="V196"/>
+      <c r="W196"/>
+      <c r="X196"/>
+      <c r="Y196"/>
+      <c r="Z196"/>
+      <c r="AA196"/>
+      <c r="AB196"/>
+    </row>
+    <row r="197" spans="1:28" ht="15" customHeight="1">
       <c r="A197" s="6" t="s">
         <v>105</v>
       </c>
@@ -5508,8 +8786,25 @@
       <c r="F197" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" ht="15" customHeight="1">
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197"/>
+      <c r="Q197"/>
+      <c r="R197"/>
+      <c r="S197"/>
+      <c r="T197"/>
+      <c r="U197"/>
+      <c r="V197"/>
+      <c r="W197"/>
+      <c r="X197"/>
+      <c r="Y197"/>
+      <c r="Z197"/>
+      <c r="AA197"/>
+      <c r="AB197"/>
+    </row>
+    <row r="198" spans="1:28" ht="15" customHeight="1">
       <c r="A198" s="6" t="s">
         <v>102</v>
       </c>
@@ -5525,45 +8820,66 @@
       <c r="E198" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" ht="15" customHeight="1">
-      <c r="A199" s="13" t="s">
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
+      <c r="O198"/>
+      <c r="P198"/>
+      <c r="Q198"/>
+      <c r="R198"/>
+      <c r="S198"/>
+      <c r="T198"/>
+      <c r="U198"/>
+      <c r="V198"/>
+      <c r="W198"/>
+      <c r="X198"/>
+      <c r="Y198"/>
+      <c r="Z198"/>
+      <c r="AA198"/>
+      <c r="AB198"/>
+    </row>
+    <row r="199" spans="1:28" ht="15" customHeight="1">
+      <c r="A199" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B199" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="12" t="s">
+      <c r="B199" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D199" s="11" t="s">
+      <c r="D199" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E199" s="11" t="s">
+      <c r="E199" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F199" s="11" t="s">
+      <c r="F199" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
-      <c r="K199" s="10"/>
-      <c r="L199" s="9"/>
-      <c r="M199" s="9"/>
-      <c r="N199" s="9"/>
-      <c r="O199" s="9"/>
-      <c r="P199" s="9"/>
-      <c r="Q199" s="9"/>
-      <c r="R199" s="9"/>
-      <c r="S199" s="9"/>
-      <c r="T199" s="9"/>
-      <c r="U199" s="9"/>
-      <c r="V199" s="9"/>
-      <c r="W199" s="9"/>
-    </row>
-    <row r="200" spans="1:23" ht="15" customHeight="1">
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+      <c r="Q199"/>
+      <c r="R199"/>
+      <c r="S199"/>
+      <c r="T199"/>
+      <c r="U199"/>
+      <c r="V199"/>
+      <c r="W199"/>
+      <c r="X199"/>
+      <c r="Y199"/>
+      <c r="Z199"/>
+      <c r="AA199"/>
+      <c r="AB199"/>
+    </row>
+    <row r="200" spans="1:28" ht="15" customHeight="1">
       <c r="A200" s="6" t="s">
         <v>93</v>
       </c>
@@ -5579,8 +8895,25 @@
       <c r="E200" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" ht="15" customHeight="1">
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
+      <c r="Q200"/>
+      <c r="R200"/>
+      <c r="S200"/>
+      <c r="T200"/>
+      <c r="U200"/>
+      <c r="V200"/>
+      <c r="W200"/>
+      <c r="X200"/>
+      <c r="Y200"/>
+      <c r="Z200"/>
+      <c r="AA200"/>
+      <c r="AB200"/>
+    </row>
+    <row r="201" spans="1:28" ht="15" customHeight="1">
       <c r="A201" s="6" t="s">
         <v>89</v>
       </c>
@@ -5599,8 +8932,25 @@
       <c r="F201" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" ht="15" customHeight="1">
+      <c r="L201"/>
+      <c r="M201"/>
+      <c r="N201"/>
+      <c r="O201"/>
+      <c r="P201"/>
+      <c r="Q201"/>
+      <c r="R201"/>
+      <c r="S201"/>
+      <c r="T201"/>
+      <c r="U201"/>
+      <c r="V201"/>
+      <c r="W201"/>
+      <c r="X201"/>
+      <c r="Y201"/>
+      <c r="Z201"/>
+      <c r="AA201"/>
+      <c r="AB201"/>
+    </row>
+    <row r="202" spans="1:28" ht="15" customHeight="1">
       <c r="A202" s="6" t="s">
         <v>86</v>
       </c>
@@ -5619,8 +8969,25 @@
       <c r="F202" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" ht="15" customHeight="1">
+      <c r="L202"/>
+      <c r="M202"/>
+      <c r="N202"/>
+      <c r="O202"/>
+      <c r="P202"/>
+      <c r="Q202"/>
+      <c r="R202"/>
+      <c r="S202"/>
+      <c r="T202"/>
+      <c r="U202"/>
+      <c r="V202"/>
+      <c r="W202"/>
+      <c r="X202"/>
+      <c r="Y202"/>
+      <c r="Z202"/>
+      <c r="AA202"/>
+      <c r="AB202"/>
+    </row>
+    <row r="203" spans="1:28" ht="15" customHeight="1">
       <c r="A203" s="6" t="s">
         <v>82</v>
       </c>
@@ -5633,8 +9000,25 @@
       <c r="D203" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" ht="15" customHeight="1">
+      <c r="L203"/>
+      <c r="M203"/>
+      <c r="N203"/>
+      <c r="O203"/>
+      <c r="P203"/>
+      <c r="Q203"/>
+      <c r="R203"/>
+      <c r="S203"/>
+      <c r="T203"/>
+      <c r="U203"/>
+      <c r="V203"/>
+      <c r="W203"/>
+      <c r="X203"/>
+      <c r="Y203"/>
+      <c r="Z203"/>
+      <c r="AA203"/>
+      <c r="AB203"/>
+    </row>
+    <row r="204" spans="1:28" ht="15" customHeight="1">
       <c r="A204" s="6" t="s">
         <v>80</v>
       </c>
@@ -5647,8 +9031,25 @@
       <c r="D204" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" ht="15" customHeight="1">
+      <c r="L204"/>
+      <c r="M204"/>
+      <c r="N204"/>
+      <c r="O204"/>
+      <c r="P204"/>
+      <c r="Q204"/>
+      <c r="R204"/>
+      <c r="S204"/>
+      <c r="T204"/>
+      <c r="U204"/>
+      <c r="V204"/>
+      <c r="W204"/>
+      <c r="X204"/>
+      <c r="Y204"/>
+      <c r="Z204"/>
+      <c r="AA204"/>
+      <c r="AB204"/>
+    </row>
+    <row r="205" spans="1:28" ht="15" customHeight="1">
       <c r="A205" s="6" t="s">
         <v>79</v>
       </c>
@@ -5667,8 +9068,25 @@
       <c r="F205" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" ht="15" customHeight="1">
+      <c r="L205"/>
+      <c r="M205"/>
+      <c r="N205"/>
+      <c r="O205"/>
+      <c r="P205"/>
+      <c r="Q205"/>
+      <c r="R205"/>
+      <c r="S205"/>
+      <c r="T205"/>
+      <c r="U205"/>
+      <c r="V205"/>
+      <c r="W205"/>
+      <c r="X205"/>
+      <c r="Y205"/>
+      <c r="Z205"/>
+      <c r="AA205"/>
+      <c r="AB205"/>
+    </row>
+    <row r="206" spans="1:28" ht="15" customHeight="1">
       <c r="A206" s="6" t="s">
         <v>75</v>
       </c>
@@ -5684,8 +9102,25 @@
       <c r="E206" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" ht="15" customHeight="1">
+      <c r="L206"/>
+      <c r="M206"/>
+      <c r="N206"/>
+      <c r="O206"/>
+      <c r="P206"/>
+      <c r="Q206"/>
+      <c r="R206"/>
+      <c r="S206"/>
+      <c r="T206"/>
+      <c r="U206"/>
+      <c r="V206"/>
+      <c r="W206"/>
+      <c r="X206"/>
+      <c r="Y206"/>
+      <c r="Z206"/>
+      <c r="AA206"/>
+      <c r="AB206"/>
+    </row>
+    <row r="207" spans="1:28" ht="15" customHeight="1">
       <c r="A207" s="6" t="s">
         <v>72</v>
       </c>
@@ -5704,8 +9139,25 @@
       <c r="F207" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" ht="15" customHeight="1">
+      <c r="L207"/>
+      <c r="M207"/>
+      <c r="N207"/>
+      <c r="O207"/>
+      <c r="P207"/>
+      <c r="Q207"/>
+      <c r="R207"/>
+      <c r="S207"/>
+      <c r="T207"/>
+      <c r="U207"/>
+      <c r="V207"/>
+      <c r="W207"/>
+      <c r="X207"/>
+      <c r="Y207"/>
+      <c r="Z207"/>
+      <c r="AA207"/>
+      <c r="AB207"/>
+    </row>
+    <row r="208" spans="1:28" ht="15" customHeight="1">
       <c r="A208" s="6" t="s">
         <v>67</v>
       </c>
@@ -5724,8 +9176,25 @@
       <c r="F208" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="15" customHeight="1">
+      <c r="L208"/>
+      <c r="M208"/>
+      <c r="N208"/>
+      <c r="O208"/>
+      <c r="P208"/>
+      <c r="Q208"/>
+      <c r="R208"/>
+      <c r="S208"/>
+      <c r="T208"/>
+      <c r="U208"/>
+      <c r="V208"/>
+      <c r="W208"/>
+      <c r="X208"/>
+      <c r="Y208"/>
+      <c r="Z208"/>
+      <c r="AA208"/>
+      <c r="AB208"/>
+    </row>
+    <row r="209" spans="1:28" ht="15" customHeight="1">
       <c r="A209" s="6" t="s">
         <v>63</v>
       </c>
@@ -5750,8 +9219,25 @@
       <c r="H209" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="15" customHeight="1">
+      <c r="L209"/>
+      <c r="M209"/>
+      <c r="N209"/>
+      <c r="O209"/>
+      <c r="P209"/>
+      <c r="Q209"/>
+      <c r="R209"/>
+      <c r="S209"/>
+      <c r="T209"/>
+      <c r="U209"/>
+      <c r="V209"/>
+      <c r="W209"/>
+      <c r="X209"/>
+      <c r="Y209"/>
+      <c r="Z209"/>
+      <c r="AA209"/>
+      <c r="AB209"/>
+    </row>
+    <row r="210" spans="1:28" ht="15" customHeight="1">
       <c r="A210" s="6" t="s">
         <v>56</v>
       </c>
@@ -5770,8 +9256,25 @@
       <c r="F210" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" ht="15" customHeight="1">
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210"/>
+      <c r="P210"/>
+      <c r="Q210"/>
+      <c r="R210"/>
+      <c r="S210"/>
+      <c r="T210"/>
+      <c r="U210"/>
+      <c r="V210"/>
+      <c r="W210"/>
+      <c r="X210"/>
+      <c r="Y210"/>
+      <c r="Z210"/>
+      <c r="AA210"/>
+      <c r="AB210"/>
+    </row>
+    <row r="211" spans="1:28" ht="15" customHeight="1">
       <c r="A211" s="6" t="s">
         <v>51</v>
       </c>
@@ -5787,8 +9290,25 @@
       <c r="E211" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="15" customHeight="1">
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="N211"/>
+      <c r="O211"/>
+      <c r="P211"/>
+      <c r="Q211"/>
+      <c r="R211"/>
+      <c r="S211"/>
+      <c r="T211"/>
+      <c r="U211"/>
+      <c r="V211"/>
+      <c r="W211"/>
+      <c r="X211"/>
+      <c r="Y211"/>
+      <c r="Z211"/>
+      <c r="AA211"/>
+      <c r="AB211"/>
+    </row>
+    <row r="212" spans="1:28" ht="15" customHeight="1">
       <c r="A212" s="6" t="s">
         <v>47</v>
       </c>
@@ -5807,8 +9327,25 @@
       <c r="F212" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="15" customHeight="1">
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="N212"/>
+      <c r="O212"/>
+      <c r="P212"/>
+      <c r="Q212"/>
+      <c r="R212"/>
+      <c r="S212"/>
+      <c r="T212"/>
+      <c r="U212"/>
+      <c r="V212"/>
+      <c r="W212"/>
+      <c r="X212"/>
+      <c r="Y212"/>
+      <c r="Z212"/>
+      <c r="AA212"/>
+      <c r="AB212"/>
+    </row>
+    <row r="213" spans="1:28" ht="15" customHeight="1">
       <c r="A213" s="6" t="s">
         <v>44</v>
       </c>
@@ -5824,8 +9361,25 @@
       <c r="E213" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="15" customHeight="1">
+      <c r="L213"/>
+      <c r="M213"/>
+      <c r="N213"/>
+      <c r="O213"/>
+      <c r="P213"/>
+      <c r="Q213"/>
+      <c r="R213"/>
+      <c r="S213"/>
+      <c r="T213"/>
+      <c r="U213"/>
+      <c r="V213"/>
+      <c r="W213"/>
+      <c r="X213"/>
+      <c r="Y213"/>
+      <c r="Z213"/>
+      <c r="AA213"/>
+      <c r="AB213"/>
+    </row>
+    <row r="214" spans="1:28" ht="15" customHeight="1">
       <c r="A214" s="6" t="s">
         <v>40</v>
       </c>
@@ -5844,8 +9398,25 @@
       <c r="F214" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="15" customHeight="1">
+      <c r="L214"/>
+      <c r="M214"/>
+      <c r="N214"/>
+      <c r="O214"/>
+      <c r="P214"/>
+      <c r="Q214"/>
+      <c r="R214"/>
+      <c r="S214"/>
+      <c r="T214"/>
+      <c r="U214"/>
+      <c r="V214"/>
+      <c r="W214"/>
+      <c r="X214"/>
+      <c r="Y214"/>
+      <c r="Z214"/>
+      <c r="AA214"/>
+      <c r="AB214"/>
+    </row>
+    <row r="215" spans="1:28" ht="15" customHeight="1">
       <c r="A215" s="6" t="s">
         <v>35</v>
       </c>
@@ -5864,8 +9435,25 @@
       <c r="F215" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" ht="15" customHeight="1">
+      <c r="L215"/>
+      <c r="M215"/>
+      <c r="N215"/>
+      <c r="O215"/>
+      <c r="P215"/>
+      <c r="Q215"/>
+      <c r="R215"/>
+      <c r="S215"/>
+      <c r="T215"/>
+      <c r="U215"/>
+      <c r="V215"/>
+      <c r="W215"/>
+      <c r="X215"/>
+      <c r="Y215"/>
+      <c r="Z215"/>
+      <c r="AA215"/>
+      <c r="AB215"/>
+    </row>
+    <row r="216" spans="1:28" ht="15" customHeight="1">
       <c r="A216" s="6" t="s">
         <v>30</v>
       </c>
@@ -5884,8 +9472,25 @@
       <c r="F216" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" ht="15" customHeight="1">
+      <c r="L216"/>
+      <c r="M216"/>
+      <c r="N216"/>
+      <c r="O216"/>
+      <c r="P216"/>
+      <c r="Q216"/>
+      <c r="R216"/>
+      <c r="S216"/>
+      <c r="T216"/>
+      <c r="U216"/>
+      <c r="V216"/>
+      <c r="W216"/>
+      <c r="X216"/>
+      <c r="Y216"/>
+      <c r="Z216"/>
+      <c r="AA216"/>
+      <c r="AB216"/>
+    </row>
+    <row r="217" spans="1:28" ht="15" customHeight="1">
       <c r="A217" s="6" t="s">
         <v>25</v>
       </c>
@@ -5898,8 +9503,25 @@
       <c r="D217" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="15" customHeight="1">
+      <c r="L217"/>
+      <c r="M217"/>
+      <c r="N217"/>
+      <c r="O217"/>
+      <c r="P217"/>
+      <c r="Q217"/>
+      <c r="R217"/>
+      <c r="S217"/>
+      <c r="T217"/>
+      <c r="U217"/>
+      <c r="V217"/>
+      <c r="W217"/>
+      <c r="X217"/>
+      <c r="Y217"/>
+      <c r="Z217"/>
+      <c r="AA217"/>
+      <c r="AB217"/>
+    </row>
+    <row r="218" spans="1:28" ht="15" customHeight="1">
       <c r="A218" s="6" t="s">
         <v>22</v>
       </c>
@@ -5918,8 +9540,25 @@
       <c r="F218" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="15" customHeight="1">
+      <c r="L218"/>
+      <c r="M218"/>
+      <c r="N218"/>
+      <c r="O218"/>
+      <c r="P218"/>
+      <c r="Q218"/>
+      <c r="R218"/>
+      <c r="S218"/>
+      <c r="T218"/>
+      <c r="U218"/>
+      <c r="V218"/>
+      <c r="W218"/>
+      <c r="X218"/>
+      <c r="Y218"/>
+      <c r="Z218"/>
+      <c r="AA218"/>
+      <c r="AB218"/>
+    </row>
+    <row r="219" spans="1:28" ht="15" customHeight="1">
       <c r="A219" s="6" t="s">
         <v>17</v>
       </c>
@@ -5935,8 +9574,25 @@
       <c r="E219" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" ht="15" customHeight="1">
+      <c r="L219"/>
+      <c r="M219"/>
+      <c r="N219"/>
+      <c r="O219"/>
+      <c r="P219"/>
+      <c r="Q219"/>
+      <c r="R219"/>
+      <c r="S219"/>
+      <c r="T219"/>
+      <c r="U219"/>
+      <c r="V219"/>
+      <c r="W219"/>
+      <c r="X219"/>
+      <c r="Y219"/>
+      <c r="Z219"/>
+      <c r="AA219"/>
+      <c r="AB219"/>
+    </row>
+    <row r="220" spans="1:28" ht="15" customHeight="1">
       <c r="A220" s="6" t="s">
         <v>13</v>
       </c>
@@ -5955,8 +9611,25 @@
       <c r="F220" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="15" customHeight="1">
+      <c r="L220"/>
+      <c r="M220"/>
+      <c r="N220"/>
+      <c r="O220"/>
+      <c r="P220"/>
+      <c r="Q220"/>
+      <c r="R220"/>
+      <c r="S220"/>
+      <c r="T220"/>
+      <c r="U220"/>
+      <c r="V220"/>
+      <c r="W220"/>
+      <c r="X220"/>
+      <c r="Y220"/>
+      <c r="Z220"/>
+      <c r="AA220"/>
+      <c r="AB220"/>
+    </row>
+    <row r="221" spans="1:28" ht="15" customHeight="1">
       <c r="A221" s="6" t="s">
         <v>8</v>
       </c>
@@ -5972,8 +9645,25 @@
       <c r="E221" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="15" customHeight="1">
+      <c r="L221"/>
+      <c r="M221"/>
+      <c r="N221"/>
+      <c r="O221"/>
+      <c r="P221"/>
+      <c r="Q221"/>
+      <c r="R221"/>
+      <c r="S221"/>
+      <c r="T221"/>
+      <c r="U221"/>
+      <c r="V221"/>
+      <c r="W221"/>
+      <c r="X221"/>
+      <c r="Y221"/>
+      <c r="Z221"/>
+      <c r="AA221"/>
+      <c r="AB221"/>
+    </row>
+    <row r="222" spans="1:28" ht="15" customHeight="1">
       <c r="A222" s="4" t="s">
         <v>4</v>
       </c>
@@ -5989,13 +9679,180 @@
       <c r="E222" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="4:8" ht="15" customHeight="1">
+      <c r="L222"/>
+      <c r="M222"/>
+      <c r="N222"/>
+      <c r="O222"/>
+      <c r="P222"/>
+      <c r="Q222"/>
+      <c r="R222"/>
+      <c r="S222"/>
+      <c r="T222"/>
+      <c r="U222"/>
+      <c r="V222"/>
+      <c r="W222"/>
+      <c r="X222"/>
+      <c r="Y222"/>
+      <c r="Z222"/>
+      <c r="AA222"/>
+      <c r="AB222"/>
+    </row>
+    <row r="223" spans="1:28" ht="15" customHeight="1">
+      <c r="L223"/>
+      <c r="M223"/>
+      <c r="N223"/>
+      <c r="O223"/>
+      <c r="P223"/>
+      <c r="Q223"/>
+      <c r="R223"/>
+      <c r="S223"/>
+      <c r="T223"/>
+      <c r="U223"/>
+      <c r="V223"/>
+      <c r="W223"/>
+      <c r="X223"/>
+      <c r="Y223"/>
+      <c r="Z223"/>
+      <c r="AA223"/>
+      <c r="AB223"/>
+    </row>
+    <row r="224" spans="1:28" ht="15" customHeight="1">
+      <c r="L224"/>
+      <c r="M224"/>
+      <c r="N224"/>
+      <c r="O224"/>
+      <c r="P224"/>
+      <c r="Q224"/>
+      <c r="R224"/>
+      <c r="S224"/>
+      <c r="T224"/>
+      <c r="U224"/>
+      <c r="V224"/>
+      <c r="W224"/>
+      <c r="X224"/>
+      <c r="Y224"/>
+      <c r="Z224"/>
+      <c r="AA224"/>
+      <c r="AB224"/>
+    </row>
+    <row r="225" spans="4:28" ht="15" customHeight="1">
+      <c r="L225"/>
+      <c r="M225"/>
+      <c r="N225"/>
+      <c r="O225"/>
+      <c r="P225"/>
+      <c r="Q225"/>
+      <c r="R225"/>
+      <c r="S225"/>
+      <c r="T225"/>
+      <c r="U225"/>
+      <c r="V225"/>
+      <c r="W225"/>
+      <c r="X225"/>
+      <c r="Y225"/>
+      <c r="Z225"/>
+      <c r="AA225"/>
+      <c r="AB225"/>
+    </row>
+    <row r="226" spans="4:28" ht="15" customHeight="1">
       <c r="D226"/>
       <c r="E226"/>
       <c r="F226"/>
       <c r="G226"/>
       <c r="H226"/>
+      <c r="L226"/>
+      <c r="M226"/>
+      <c r="N226"/>
+      <c r="O226"/>
+      <c r="P226"/>
+      <c r="Q226"/>
+      <c r="R226"/>
+      <c r="S226"/>
+      <c r="T226"/>
+      <c r="U226"/>
+      <c r="V226"/>
+      <c r="W226"/>
+      <c r="X226"/>
+      <c r="Y226"/>
+      <c r="Z226"/>
+      <c r="AA226"/>
+      <c r="AB226"/>
+    </row>
+    <row r="227" spans="4:28" ht="15" customHeight="1">
+      <c r="L227"/>
+      <c r="M227"/>
+      <c r="N227"/>
+      <c r="O227"/>
+      <c r="P227"/>
+      <c r="Q227"/>
+      <c r="R227"/>
+      <c r="S227"/>
+      <c r="T227"/>
+      <c r="U227"/>
+      <c r="V227"/>
+      <c r="W227"/>
+      <c r="X227"/>
+      <c r="Y227"/>
+      <c r="Z227"/>
+      <c r="AA227"/>
+      <c r="AB227"/>
+    </row>
+    <row r="228" spans="4:28" ht="15" customHeight="1">
+      <c r="L228"/>
+      <c r="M228"/>
+      <c r="N228"/>
+      <c r="O228"/>
+      <c r="P228"/>
+      <c r="Q228"/>
+      <c r="R228"/>
+      <c r="S228"/>
+      <c r="T228"/>
+      <c r="U228"/>
+      <c r="V228"/>
+      <c r="W228"/>
+      <c r="X228"/>
+      <c r="Y228"/>
+      <c r="Z228"/>
+      <c r="AA228"/>
+      <c r="AB228"/>
+    </row>
+    <row r="229" spans="4:28" ht="15" customHeight="1">
+      <c r="L229"/>
+      <c r="M229"/>
+      <c r="N229"/>
+      <c r="O229"/>
+      <c r="P229"/>
+      <c r="Q229"/>
+      <c r="R229"/>
+      <c r="S229"/>
+      <c r="T229"/>
+      <c r="U229"/>
+      <c r="V229"/>
+      <c r="W229"/>
+      <c r="X229"/>
+      <c r="Y229"/>
+      <c r="Z229"/>
+      <c r="AA229"/>
+      <c r="AB229"/>
+    </row>
+    <row r="230" spans="4:28" ht="15" customHeight="1">
+      <c r="L230"/>
+      <c r="M230"/>
+      <c r="N230"/>
+      <c r="O230"/>
+      <c r="P230"/>
+      <c r="Q230"/>
+      <c r="R230"/>
+      <c r="S230"/>
+      <c r="T230"/>
+      <c r="U230"/>
+      <c r="V230"/>
+      <c r="W230"/>
+      <c r="X230"/>
+      <c r="Y230"/>
+      <c r="Z230"/>
+      <c r="AA230"/>
+      <c r="AB230"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
